--- a/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
+++ b/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
+++ b/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
+++ b/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="C26" s="26" t="n"/>
       <c r="D26" s="27" t="n">
-        <v>175.344</v>
+        <v>338.256</v>
       </c>
       <c r="E26" s="28" t="n"/>
       <c r="F26" s="28" t="n"/>
@@ -903,7 +903,7 @@
       </c>
       <c r="C27" s="26" t="n"/>
       <c r="D27" s="27" t="n">
-        <v>221.602</v>
+        <v>389.76</v>
       </c>
       <c r="E27" s="28" t="n"/>
       <c r="F27" s="28" t="n"/>
@@ -921,7 +921,7 @@
       </c>
       <c r="C28" s="24" t="n"/>
       <c r="D28" s="27" t="n">
-        <v>300</v>
+        <v>478.5</v>
       </c>
       <c r="E28" s="28" t="n"/>
       <c r="F28" s="28" t="n"/>
@@ -951,13 +951,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
+++ b/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
+++ b/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="C26" s="26" t="n"/>
       <c r="D26" s="27" t="n">
-        <v>338.256</v>
+        <v>175.344</v>
       </c>
       <c r="E26" s="28" t="n"/>
       <c r="F26" s="28" t="n"/>
@@ -903,7 +903,7 @@
       </c>
       <c r="C27" s="26" t="n"/>
       <c r="D27" s="27" t="n">
-        <v>389.76</v>
+        <v>221.602</v>
       </c>
       <c r="E27" s="28" t="n"/>
       <c r="F27" s="28" t="n"/>
@@ -921,7 +921,7 @@
       </c>
       <c r="C28" s="24" t="n"/>
       <c r="D28" s="27" t="n">
-        <v>478.5</v>
+        <v>300</v>
       </c>
       <c r="E28" s="28" t="n"/>
       <c r="F28" s="28" t="n"/>
@@ -951,13 +951,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
+++ b/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -951,13 +951,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
+++ b/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -951,13 +951,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
+++ b/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -951,13 +951,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
+++ b/server/LISTAS/mi/BISAGRAS ESCALERA DISMAY.xlsx
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="C26" s="26" t="n"/>
       <c r="D26" s="27" t="n">
-        <v>175.344</v>
+        <v>437.461</v>
       </c>
       <c r="E26" s="28" t="n"/>
       <c r="F26" s="28" t="n"/>
@@ -903,7 +903,7 @@
       </c>
       <c r="C27" s="26" t="n"/>
       <c r="D27" s="27" t="n">
-        <v>221.602</v>
+        <v>504.071</v>
       </c>
       <c r="E27" s="28" t="n"/>
       <c r="F27" s="28" t="n"/>
@@ -921,7 +921,7 @@
       </c>
       <c r="C28" s="24" t="n"/>
       <c r="D28" s="27" t="n">
-        <v>300</v>
+        <v>618.837</v>
       </c>
       <c r="E28" s="28" t="n"/>
       <c r="F28" s="28" t="n"/>
@@ -951,13 +951,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
